--- a/身体状态记录.xlsx
+++ b/身体状态记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wujiazhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B72D035-86E1-4198-887A-56B9A9FC35FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215075DF-9E0E-4685-91C0-7C1C701AAA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -400,7 +400,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -438,6 +438,12 @@
       <c r="A3" s="4">
         <v>45811</v>
       </c>
+      <c r="B3" s="5">
+        <v>130.1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">

--- a/身体状态记录.xlsx
+++ b/身体状态记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wujiazhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215075DF-9E0E-4685-91C0-7C1C701AAA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD9E80-5950-4FA1-B5C1-9292D193A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -449,6 +449,12 @@
       <c r="A4" s="4">
         <v>45812</v>
       </c>
+      <c r="B4" s="5">
+        <v>128.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">

--- a/身体状态记录.xlsx
+++ b/身体状态记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wujiazhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD9E80-5950-4FA1-B5C1-9292D193A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1BB14B-1033-4682-8FCB-7224BA849CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>85.5cm</t>
+    <t>体重(斤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰围（CM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -414,13 +410,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -430,8 +426,8 @@
       <c r="B2" s="5">
         <v>128.5</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
+      <c r="C2" s="5">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -459,6 +455,12 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>45813</v>
+      </c>
+      <c r="B5" s="5">
+        <v>127.3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>86.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">

--- a/身体状态记录.xlsx
+++ b/身体状态记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wujiazhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1BB14B-1033-4682-8FCB-7224BA849CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA264C0E-5EAE-41C3-A4BD-6AFD7017CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -467,6 +467,12 @@
       <c r="A6" s="4">
         <v>45814</v>
       </c>
+      <c r="B6" s="5">
+        <v>126.6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4">

--- a/身体状态记录.xlsx
+++ b/身体状态记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wujiazhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA264C0E-5EAE-41C3-A4BD-6AFD7017CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11544285-B9A6-46E2-BA0E-3E0FEDA45B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -478,6 +478,12 @@
       <c r="A7" s="4">
         <v>45815</v>
       </c>
+      <c r="B7" s="5">
+        <v>126.4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4">

--- a/身体状态记录.xlsx
+++ b/身体状态记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wujiazhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11544285-B9A6-46E2-BA0E-3E0FEDA45B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C20F5-1CDB-43DD-9EB0-84EBECB77D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -489,6 +489,12 @@
       <c r="A8" s="4">
         <v>45816</v>
       </c>
+      <c r="B8" s="5">
+        <v>125.4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4">

--- a/身体状态记录.xlsx
+++ b/身体状态记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wujiazhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C20F5-1CDB-43DD-9EB0-84EBECB77D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA81D9-1BC8-4260-B248-0F5A5F329449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -500,6 +500,12 @@
       <c r="A9" s="4">
         <v>45817</v>
       </c>
+      <c r="B9" s="5">
+        <v>125.3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4">

--- a/身体状态记录.xlsx
+++ b/身体状态记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wujiazhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA81D9-1BC8-4260-B248-0F5A5F329449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79D3027-0A76-48A2-8CF5-880D772E2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -511,6 +511,12 @@
       <c r="A10" s="4">
         <v>45818</v>
       </c>
+      <c r="B10" s="5">
+        <v>125.6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4">

--- a/身体状态记录.xlsx
+++ b/身体状态记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wujiazhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79D3027-0A76-48A2-8CF5-880D772E2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15102E67-801C-40E3-874B-C228996CC773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -522,6 +522,12 @@
       <c r="A11" s="4">
         <v>45819</v>
       </c>
+      <c r="B11" s="5">
+        <v>127.6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
